--- a/download/playoff-2017-b.xlsx
+++ b/download/playoff-2017-b.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,6 +16,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">List1!$A$1:$G$58</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">List1!$A$1:$G$58</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">List1!$A$1:$G$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">List1!$A$1:$G$58</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="62">
   <si>
     <t xml:space="preserve">Finále Liga B – 12. 3. 2017 - o 1. až 8. místo</t>
   </si>
@@ -53,12 +54,33 @@
     <t xml:space="preserve">DAN TEAM</t>
   </si>
   <si>
+    <t xml:space="preserve">2:0 (22, 20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:0 (19, 14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:0 (22, 10)</t>
+  </si>
+  <si>
     <t xml:space="preserve">POHODA</t>
   </si>
   <si>
+    <t xml:space="preserve">0:2 (-21, -19)</t>
+  </si>
+  <si>
     <t xml:space="preserve">RAJČA</t>
   </si>
   <si>
+    <t xml:space="preserve">Mamma Mia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:2 (-23, 20, -9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:1 (-22, 29, 10)</t>
+  </si>
+  <si>
     <t xml:space="preserve">5. místo</t>
   </si>
   <si>
@@ -74,7 +96,13 @@
     <t xml:space="preserve">mistr ligy</t>
   </si>
   <si>
-    <t xml:space="preserve">Mamma Mia</t>
+    <t xml:space="preserve">2:1 (21, -17, 11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:1 (19, -22, 13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:0 (21, 20)</t>
   </si>
   <si>
     <t xml:space="preserve">RADEGAST</t>
@@ -83,6 +111,15 @@
     <t xml:space="preserve">Kalamita</t>
   </si>
   <si>
+    <t xml:space="preserve">2:0 (27, 15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:2 (-21, -23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:2 (-22, -13)</t>
+  </si>
+  <si>
     <t xml:space="preserve">7. místo</t>
   </si>
   <si>
@@ -107,9 +144,24 @@
     <t xml:space="preserve">Osmička</t>
   </si>
   <si>
+    <t xml:space="preserve">0:2 (-19, -22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:2 (-22, -20)</t>
+  </si>
+  <si>
     <t xml:space="preserve">PRAŠIVÁ</t>
   </si>
   <si>
+    <t xml:space="preserve">1:2 (-16, 15, -12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:1 (20, -22, -8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:1 (15, -20, 7)</t>
+  </si>
+  <si>
     <t xml:space="preserve">13. místo</t>
   </si>
   <si>
@@ -128,13 +180,31 @@
     <t xml:space="preserve">Dapsáci</t>
   </si>
   <si>
+    <t xml:space="preserve">2:1 (-21, 20, 9)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KVN Vsetín</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:2 (-11, -16)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ČSAD Frýdek-Místek, a.s.</t>
   </si>
   <si>
-    <t xml:space="preserve">KVN Vsetín</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16. místo</t>
+    <t xml:space="preserve">2:1 (17, -18, 12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ujsoly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:1 (20, -20, 14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:0 (17, 18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15. místo</t>
   </si>
   <si>
     <t xml:space="preserve">o 15. - 16. místo</t>
@@ -330,7 +400,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -441,10 +511,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -470,16 +536,16 @@
   </sheetPr>
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -533,9 +599,15 @@
     <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="6"/>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
@@ -552,11 +624,19 @@
     </row>
     <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="11"/>
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="6"/>
+      <c r="E7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -564,7 +644,7 @@
       <c r="B8" s="13"/>
       <c r="C8" s="14"/>
       <c r="D8" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -573,9 +653,15 @@
     <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5"/>
       <c r="B9" s="14"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="8"/>
+      <c r="C9" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="F9" s="15"/>
       <c r="G9" s="5"/>
     </row>
@@ -584,46 +670,60 @@
       <c r="B10" s="14"/>
       <c r="C10" s="5"/>
       <c r="D10" s="18" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="15"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="17"/>
+      <c r="F11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="23" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="17"/>
+      <c r="C13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>19</v>
+      </c>
       <c r="F13" s="15"/>
       <c r="G13" s="5"/>
     </row>
@@ -632,7 +732,7 @@
       <c r="B14" s="24"/>
       <c r="C14" s="10"/>
       <c r="D14" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="15"/>
@@ -640,11 +740,19 @@
     </row>
     <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="11"/>
+      <c r="B15" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="18"/>
+      <c r="E15" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>19</v>
+      </c>
       <c r="G15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -652,7 +760,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="14"/>
       <c r="D16" s="6" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="5"/>
@@ -661,9 +769,15 @@
     <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="18"/>
+      <c r="C17" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>25</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
@@ -672,7 +786,7 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="18" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
@@ -680,11 +794,15 @@
     </row>
     <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
+      <c r="B19" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="G19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -715,29 +833,37 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="17"/>
+      <c r="F23" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="23" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -760,11 +886,15 @@
     </row>
     <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5"/>
-      <c r="B27" s="17"/>
+      <c r="B27" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="C27" s="7"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="G27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -800,7 +930,7 @@
     </row>
     <row r="32" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -842,7 +972,7 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
@@ -851,9 +981,15 @@
     <row r="36" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="6"/>
+      <c r="C36" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
@@ -862,7 +998,7 @@
       <c r="B37" s="5"/>
       <c r="C37" s="10"/>
       <c r="D37" s="8" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="5"/>
@@ -870,11 +1006,19 @@
     </row>
     <row r="38" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="7"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="11"/>
+      <c r="B38" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="D38" s="5"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="17"/>
+      <c r="E38" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="G38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -882,7 +1026,7 @@
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
       <c r="D39" s="6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
@@ -891,9 +1035,15 @@
     <row r="40" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="18"/>
+      <c r="C40" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>40</v>
+      </c>
       <c r="F40" s="15"/>
       <c r="G40" s="5"/>
     </row>
@@ -902,46 +1052,60 @@
       <c r="B41" s="14"/>
       <c r="C41" s="5"/>
       <c r="D41" s="18" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="15"/>
       <c r="G41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8"/>
-      <c r="B42" s="19"/>
+      <c r="A42" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>42</v>
+      </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="17"/>
+      <c r="F42" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="21" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="23" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="5"/>
       <c r="B44" s="14"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="17"/>
+      <c r="C44" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="F44" s="15"/>
       <c r="G44" s="5"/>
     </row>
@@ -950,7 +1114,7 @@
       <c r="B45" s="24"/>
       <c r="C45" s="10"/>
       <c r="D45" s="8" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="15"/>
@@ -958,11 +1122,19 @@
     </row>
     <row r="46" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="5"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="11"/>
+      <c r="B46" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="D46" s="5"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="18"/>
+      <c r="E46" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="G46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -970,7 +1142,7 @@
       <c r="B47" s="5"/>
       <c r="C47" s="14"/>
       <c r="D47" s="6" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="5"/>
@@ -979,9 +1151,15 @@
     <row r="48" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="18"/>
+      <c r="C48" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
     </row>
@@ -990,7 +1168,7 @@
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="18" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
@@ -998,11 +1176,15 @@
     </row>
     <row r="50" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
+      <c r="B50" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="6"/>
+      <c r="F50" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1033,29 +1215,37 @@
       <c r="G53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8"/>
-      <c r="B54" s="19"/>
+      <c r="A54" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="17"/>
+      <c r="F54" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
       <c r="F55" s="23" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1078,11 +1268,15 @@
     </row>
     <row r="58" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="5"/>
-      <c r="B58" s="17"/>
+      <c r="B58" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="C58" s="7"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
-      <c r="F58" s="8"/>
+      <c r="F58" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="G58" s="5"/>
     </row>
   </sheetData>
@@ -1092,7 +1286,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1110,18 +1304,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1136,18 +1330,18 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.51"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
